--- a/dm_setups/dm_template_v2.xlsx
+++ b/dm_setups/dm_template_v2.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aa_non_code_repos\cassandra_default_road_model\dm_setups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C11CE9-1D22-49FF-A3D7-0D8932533638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D02E401-2CCA-42E3-A10C-B15069F7A6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="35490" windowHeight="16755" tabRatio="669" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="669" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="function_set" sheetId="9" r:id="rId1"/>
-    <sheet name="input_headers" sheetId="1" r:id="rId2"/>
-    <sheet name="parameters" sheetId="2" r:id="rId3"/>
-    <sheet name="lookups" sheetId="3" r:id="rId4"/>
-    <sheet name="treatments" sheetId="4" r:id="rId5"/>
-    <sheet name="bca_strategies" sheetId="5" r:id="rId6"/>
-    <sheet name="mcda_treatments" sheetId="6" r:id="rId7"/>
-    <sheet name="mcda_setup" sheetId="7" r:id="rId8"/>
-    <sheet name="network_functions" sheetId="8" r:id="rId9"/>
+    <sheet name="change_log" sheetId="10" r:id="rId1"/>
+    <sheet name="function_set" sheetId="9" r:id="rId2"/>
+    <sheet name="input_headers" sheetId="1" r:id="rId3"/>
+    <sheet name="parameters" sheetId="2" r:id="rId4"/>
+    <sheet name="lookups" sheetId="3" r:id="rId5"/>
+    <sheet name="treatments" sheetId="4" r:id="rId6"/>
+    <sheet name="bca_strategies" sheetId="5" r:id="rId7"/>
+    <sheet name="mcda_treatments" sheetId="6" r:id="rId8"/>
+    <sheet name="mcda_setup" sheetId="7" r:id="rId9"/>
+    <sheet name="network_functions" sheetId="8" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">function_set!$A$1:$J$482</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">input_headers!$A$1:$E$56</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">parameters!$A$1:$F$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">function_set!$A$1:$J$482</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">input_headers!$A$1:$E$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">parameters!$A$1:$F$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6093" uniqueCount="1830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6156" uniqueCount="1848">
   <si>
     <t>category</t>
   </si>
@@ -5533,13 +5534,67 @@
   </si>
   <si>
     <t>TSS for Rehab based on PDI rank (do not extrapolate -else excess rut effect is effectively ignored)</t>
+  </si>
+  <si>
+    <t>Renewals</t>
+  </si>
+  <si>
+    <t>Split-Budget</t>
+  </si>
+  <si>
+    <t>Monolithic-Budget</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Additonal Comment</t>
+  </si>
+  <si>
+    <t>Added change_log sheet</t>
+  </si>
+  <si>
+    <t>List here only changes that were made in THIS version compared to the earlier one</t>
+  </si>
+  <si>
+    <t>If you clone and re-version an earlier version then clear the change-log table below BEFORE you add comments on what was changed</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>Modified function 'renw_tss_rehab_pdi' so that it does NOT extrapolate</t>
+  </si>
+  <si>
+    <t>Otherwise large negative value for lower PDI will negate excess rut impact on TSS</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Modified 'mcda_setup' default weightings based on recent experience</t>
+  </si>
+  <si>
+    <t>Need to apply cost scaling based on 'file_length' field in Model Config for MCDA</t>
+  </si>
+  <si>
+    <t>Modified 'treatments' sheet by adding Monotlithic and Split Budget data</t>
+  </si>
+  <si>
+    <t>Data added at right of table can be used to quickly switch monolithic to split budget</t>
+  </si>
+  <si>
+    <t>Validated on Demo Project for BCA and MCDA?</t>
+  </si>
+  <si>
+    <t>Yes (Fritz)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5571,6 +5626,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5746,7 +5808,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -6286,11 +6348,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6835,6 +6912,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7154,13 +7240,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBC4E88-BA3A-4E7F-9683-EE4C29DE5FDC}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="75.5703125" customWidth="1"/>
+    <col min="3" max="3" width="74.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="186" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B1" s="186" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="186" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="188" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B5" s="188" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="187">
+        <v>1</v>
+      </c>
+      <c r="B6" s="185" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C6" s="185"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="187">
+        <v>2</v>
+      </c>
+      <c r="B7" s="185" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C7" s="185" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="187">
+        <v>3</v>
+      </c>
+      <c r="B8" s="185" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C8" s="185" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="187">
+        <v>4</v>
+      </c>
+      <c r="B9" s="185" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C9" s="185" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="187"/>
+      <c r="B10" s="185"/>
+      <c r="C10" s="185"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="187"/>
+      <c r="B11" s="185"/>
+      <c r="C11" s="185"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="187"/>
+      <c r="B12" s="185"/>
+      <c r="C12" s="185"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="187"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="185"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="187"/>
+      <c r="B14" s="185"/>
+      <c r="C14" s="185"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="187"/>
+      <c r="B15" s="185"/>
+      <c r="C15" s="185"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="185" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C17" s="185" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="112" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1" s="112" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1" s="112" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1" s="112" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="116" t="s">
+        <v>876</v>
+      </c>
+      <c r="B2" s="116" t="s">
+        <v>443</v>
+      </c>
+      <c r="C2" s="116" t="s">
+        <v>912</v>
+      </c>
+      <c r="D2" s="116" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="116" t="s">
+        <v>893</v>
+      </c>
+      <c r="B3" s="116" t="s">
+        <v>443</v>
+      </c>
+      <c r="C3" s="116" t="s">
+        <v>910</v>
+      </c>
+      <c r="D3" s="116" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="116" t="s">
+        <v>896</v>
+      </c>
+      <c r="B4" s="116" t="s">
+        <v>443</v>
+      </c>
+      <c r="C4" s="116" t="s">
+        <v>911</v>
+      </c>
+      <c r="D4" s="116" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="116" t="s">
+        <v>897</v>
+      </c>
+      <c r="B5" s="116" t="s">
+        <v>443</v>
+      </c>
+      <c r="C5" s="116" t="s">
+        <v>909</v>
+      </c>
+      <c r="D5" s="116" t="s">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H461" sqref="H461"/>
+      <selection pane="bottomLeft" activeCell="G489" sqref="G489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21842,12 +22142,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22817,7 +23117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
@@ -23807,7 +24107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E260"/>
   <sheetViews>
@@ -28100,11 +28400,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -28114,9 +28416,10 @@
     <col min="4" max="4" width="44.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="66.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="110" t="s">
         <v>372</v>
       </c>
@@ -28135,8 +28438,14 @@
       <c r="F1" s="110" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I1" s="110" t="s">
+        <v>373</v>
+      </c>
+      <c r="J1" s="110" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="111" t="s">
         <v>242</v>
       </c>
@@ -28144,7 +28453,7 @@
         <v>377</v>
       </c>
       <c r="C2" s="111" t="s">
-        <v>378</v>
+        <v>1830</v>
       </c>
       <c r="D2" s="111" t="s">
         <v>379</v>
@@ -28155,8 +28464,14 @@
       <c r="F2" s="111" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I2" s="111" t="s">
+        <v>378</v>
+      </c>
+      <c r="J2" s="111" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="119" t="s">
         <v>246</v>
       </c>
@@ -28164,7 +28479,7 @@
         <v>377</v>
       </c>
       <c r="C3" s="119" t="s">
-        <v>378</v>
+        <v>1830</v>
       </c>
       <c r="D3" s="119" t="s">
         <v>379</v>
@@ -28175,8 +28490,14 @@
       <c r="F3" s="119" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I3" s="119" t="s">
+        <v>378</v>
+      </c>
+      <c r="J3" s="119" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="111" t="s">
         <v>239</v>
       </c>
@@ -28184,7 +28505,7 @@
         <v>381</v>
       </c>
       <c r="C4" s="111" t="s">
-        <v>382</v>
+        <v>1830</v>
       </c>
       <c r="D4" s="111" t="s">
         <v>383</v>
@@ -28193,8 +28514,14 @@
         <v>10</v>
       </c>
       <c r="F4" s="111"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I4" s="111" t="s">
+        <v>382</v>
+      </c>
+      <c r="J4" s="111" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="111" t="s">
         <v>241</v>
       </c>
@@ -28202,7 +28529,7 @@
         <v>381</v>
       </c>
       <c r="C5" s="111" t="s">
-        <v>382</v>
+        <v>1830</v>
       </c>
       <c r="D5" s="111" t="s">
         <v>383</v>
@@ -28211,8 +28538,14 @@
         <v>10</v>
       </c>
       <c r="F5" s="111"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I5" s="111" t="s">
+        <v>382</v>
+      </c>
+      <c r="J5" s="111" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="111" t="s">
         <v>243</v>
       </c>
@@ -28220,7 +28553,7 @@
         <v>377</v>
       </c>
       <c r="C6" s="111" t="s">
-        <v>382</v>
+        <v>1830</v>
       </c>
       <c r="D6" s="111" t="s">
         <v>384</v>
@@ -28229,8 +28562,14 @@
         <v>10</v>
       </c>
       <c r="F6" s="111"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I6" s="111" t="s">
+        <v>382</v>
+      </c>
+      <c r="J6" s="111" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="119" t="s">
         <v>244</v>
       </c>
@@ -28238,7 +28577,7 @@
         <v>381</v>
       </c>
       <c r="C7" s="119" t="s">
-        <v>382</v>
+        <v>1830</v>
       </c>
       <c r="D7" s="119" t="s">
         <v>385</v>
@@ -28247,8 +28586,14 @@
         <v>50</v>
       </c>
       <c r="F7" s="119"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I7" s="119" t="s">
+        <v>382</v>
+      </c>
+      <c r="J7" s="119" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="119" t="s">
         <v>247</v>
       </c>
@@ -28256,7 +28601,7 @@
         <v>377</v>
       </c>
       <c r="C8" s="119" t="s">
-        <v>382</v>
+        <v>1830</v>
       </c>
       <c r="D8" s="119" t="s">
         <v>386</v>
@@ -28265,8 +28610,14 @@
         <v>50</v>
       </c>
       <c r="F8" s="119"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I8" s="119" t="s">
+        <v>382</v>
+      </c>
+      <c r="J8" s="119" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="111" t="s">
         <v>248</v>
       </c>
@@ -28274,7 +28625,7 @@
         <v>387</v>
       </c>
       <c r="C9" s="111" t="s">
-        <v>388</v>
+        <v>1830</v>
       </c>
       <c r="D9" s="111" t="s">
         <v>389</v>
@@ -28285,8 +28636,14 @@
       <c r="F9" s="111" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I9" s="111" t="s">
+        <v>388</v>
+      </c>
+      <c r="J9" s="111" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="111" t="s">
         <v>249</v>
       </c>
@@ -28294,7 +28651,7 @@
         <v>387</v>
       </c>
       <c r="C10" s="111" t="s">
-        <v>388</v>
+        <v>1830</v>
       </c>
       <c r="D10" s="111" t="s">
         <v>391</v>
@@ -28305,8 +28662,14 @@
       <c r="F10" s="111" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I10" s="111" t="s">
+        <v>388</v>
+      </c>
+      <c r="J10" s="111" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="111" t="s">
         <v>250</v>
       </c>
@@ -28314,7 +28677,7 @@
         <v>387</v>
       </c>
       <c r="C11" s="111" t="s">
-        <v>388</v>
+        <v>1830</v>
       </c>
       <c r="D11" s="111" t="s">
         <v>393</v>
@@ -28325,8 +28688,14 @@
       <c r="F11" s="111" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I11" s="111" t="s">
+        <v>388</v>
+      </c>
+      <c r="J11" s="111" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="111" t="s">
         <v>251</v>
       </c>
@@ -28334,7 +28703,7 @@
         <v>387</v>
       </c>
       <c r="C12" s="111" t="s">
-        <v>388</v>
+        <v>1830</v>
       </c>
       <c r="D12" s="111" t="s">
         <v>395</v>
@@ -28345,8 +28714,14 @@
       <c r="F12" s="111" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I12" s="111" t="s">
+        <v>388</v>
+      </c>
+      <c r="J12" s="111" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="111" t="s">
         <v>252</v>
       </c>
@@ -28354,7 +28729,7 @@
         <v>387</v>
       </c>
       <c r="C13" s="111" t="s">
-        <v>388</v>
+        <v>1830</v>
       </c>
       <c r="D13" s="111" t="s">
         <v>396</v>
@@ -28365,8 +28740,14 @@
       <c r="F13" s="111" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I13" s="111" t="s">
+        <v>388</v>
+      </c>
+      <c r="J13" s="111" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="111" t="s">
         <v>253</v>
       </c>
@@ -28374,7 +28755,7 @@
         <v>387</v>
       </c>
       <c r="C14" s="111" t="s">
-        <v>388</v>
+        <v>1830</v>
       </c>
       <c r="D14" s="111" t="s">
         <v>397</v>
@@ -28385,8 +28766,14 @@
       <c r="F14" s="111" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I14" s="111" t="s">
+        <v>388</v>
+      </c>
+      <c r="J14" s="111" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="119" t="s">
         <v>254</v>
       </c>
@@ -28394,7 +28781,7 @@
         <v>398</v>
       </c>
       <c r="C15" s="119" t="s">
-        <v>388</v>
+        <v>1830</v>
       </c>
       <c r="D15" s="119" t="s">
         <v>399</v>
@@ -28405,8 +28792,14 @@
       <c r="F15" s="119" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I15" s="119" t="s">
+        <v>388</v>
+      </c>
+      <c r="J15" s="119" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="119" t="s">
         <v>255</v>
       </c>
@@ -28414,7 +28807,7 @@
         <v>398</v>
       </c>
       <c r="C16" s="119" t="s">
-        <v>388</v>
+        <v>1830</v>
       </c>
       <c r="D16" s="119" t="s">
         <v>400</v>
@@ -28425,8 +28818,14 @@
       <c r="F16" s="119" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I16" s="119" t="s">
+        <v>388</v>
+      </c>
+      <c r="J16" s="119" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="119" t="s">
         <v>256</v>
       </c>
@@ -28434,7 +28833,7 @@
         <v>398</v>
       </c>
       <c r="C17" s="119" t="s">
-        <v>388</v>
+        <v>1830</v>
       </c>
       <c r="D17" s="119" t="s">
         <v>401</v>
@@ -28445,8 +28844,14 @@
       <c r="F17" s="119" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I17" s="119" t="s">
+        <v>388</v>
+      </c>
+      <c r="J17" s="119" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="119" t="s">
         <v>257</v>
       </c>
@@ -28454,7 +28859,7 @@
         <v>398</v>
       </c>
       <c r="C18" s="119" t="s">
-        <v>388</v>
+        <v>1830</v>
       </c>
       <c r="D18" s="119" t="s">
         <v>402</v>
@@ -28465,8 +28870,14 @@
       <c r="F18" s="119" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I18" s="119" t="s">
+        <v>388</v>
+      </c>
+      <c r="J18" s="119" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="119" t="s">
         <v>258</v>
       </c>
@@ -28474,7 +28885,7 @@
         <v>398</v>
       </c>
       <c r="C19" s="119" t="s">
-        <v>388</v>
+        <v>1830</v>
       </c>
       <c r="D19" s="119" t="s">
         <v>403</v>
@@ -28485,8 +28896,14 @@
       <c r="F19" s="119" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I19" s="119" t="s">
+        <v>388</v>
+      </c>
+      <c r="J19" s="119" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="119" t="s">
         <v>259</v>
       </c>
@@ -28494,7 +28911,7 @@
         <v>398</v>
       </c>
       <c r="C20" s="119" t="s">
-        <v>388</v>
+        <v>1830</v>
       </c>
       <c r="D20" s="119" t="s">
         <v>404</v>
@@ -28505,8 +28922,14 @@
       <c r="F20" s="119" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I20" s="119" t="s">
+        <v>388</v>
+      </c>
+      <c r="J20" s="119" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="111" t="s">
         <v>405</v>
       </c>
@@ -28525,8 +28948,14 @@
       <c r="F21" s="111" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I21" s="111" t="s">
+        <v>406</v>
+      </c>
+      <c r="J21" s="111" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="111" t="s">
         <v>409</v>
       </c>
@@ -28543,8 +28972,14 @@
         <v>0</v>
       </c>
       <c r="F22" s="111"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I22" s="111" t="s">
+        <v>409</v>
+      </c>
+      <c r="J22" s="111" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="111" t="s">
         <v>411</v>
       </c>
@@ -28561,13 +28996,27 @@
         <v>0</v>
       </c>
       <c r="F23" s="111"/>
+      <c r="I23" s="111" t="s">
+        <v>412</v>
+      </c>
+      <c r="J23" s="111" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I25" s="184" t="s">
+        <v>1831</v>
+      </c>
+      <c r="J25" s="184" t="s">
+        <v>1832</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
@@ -30050,7 +30499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -30556,7 +31005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -30659,94 +31108,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
-        <v>440</v>
-      </c>
-      <c r="B1" s="112" t="s">
-        <v>441</v>
-      </c>
-      <c r="C1" s="112" t="s">
-        <v>442</v>
-      </c>
-      <c r="D1" s="112" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="116" t="s">
-        <v>876</v>
-      </c>
-      <c r="B2" s="116" t="s">
-        <v>443</v>
-      </c>
-      <c r="C2" s="116" t="s">
-        <v>912</v>
-      </c>
-      <c r="D2" s="116" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
-        <v>893</v>
-      </c>
-      <c r="B3" s="116" t="s">
-        <v>443</v>
-      </c>
-      <c r="C3" s="116" t="s">
-        <v>910</v>
-      </c>
-      <c r="D3" s="116" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
-        <v>896</v>
-      </c>
-      <c r="B4" s="116" t="s">
-        <v>443</v>
-      </c>
-      <c r="C4" s="116" t="s">
-        <v>911</v>
-      </c>
-      <c r="D4" s="116" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="116" t="s">
-        <v>897</v>
-      </c>
-      <c r="B5" s="116" t="s">
-        <v>443</v>
-      </c>
-      <c r="C5" s="116" t="s">
-        <v>909</v>
-      </c>
-      <c r="D5" s="116" t="s">
-        <v>447</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>